--- a/Data/Annotation template/Annotations_samples_template.xlsx
+++ b/Data/Annotation template/Annotations_samples_template.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0099120\Dropbox\Shared R projects\qpcrviia7\Data\Annotation template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="18540" windowHeight="11760"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="18540" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Sample 1</t>
   </si>
@@ -93,25 +98,16 @@
     <t>Sample 24</t>
   </si>
   <si>
-    <t>Cell_type</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>Mouse</t>
-  </si>
-  <si>
-    <t>Passage</t>
-  </si>
-  <si>
     <t>Sample</t>
+  </si>
+  <si>
+    <t>Add annotations used in your experiment per column</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,7 +141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -415,7 +411,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -423,103 +419,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
